--- a/_base/_spreadsheet.xlsx
+++ b/_base/_spreadsheet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>key</t>
   </si>
@@ -30,6 +30,9 @@
     <t>google_analytics_id</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>Identifier for Google analytics</t>
   </si>
   <si>
@@ -45,7 +48,7 @@
     <t>OpenGraph description (Facebook, Pinterest, Google Plus)</t>
   </si>
   <si>
-    <t>twitter_text</t>
+    <t>twitter_description</t>
   </si>
   <si>
     <t>Text for twitter</t>
@@ -84,7 +87,19 @@
     <t>key1</t>
   </si>
   <si>
+    <t>key1, column1</t>
+  </si>
+  <si>
+    <t>key1, column2</t>
+  </si>
+  <si>
     <t>key2</t>
+  </si>
+  <si>
+    <t>key2, column1</t>
+  </si>
+  <si>
+    <t>key2, column2</t>
   </si>
 </sst>
 </file>
@@ -95,7 +110,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -189,15 +204,6 @@
     <font>
       <b/>
       <i/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="10.0"/>
@@ -242,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -313,29 +319,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
@@ -360,10 +348,7 @@
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="5" applyFont="1" fontId="7">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="6" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="7" applyFont="1" fontId="8">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="6" applyFont="1" fontId="8">
       <alignment vertical="top" horizontal="general" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="9">
@@ -375,13 +360,10 @@
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="11">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="8" applyFont="1" fontId="12">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="165" borderId="7" applyFont="1" fontId="12" applyNumberFormat="1">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="165" borderId="9" applyFont="1" fontId="13" applyNumberFormat="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="14">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="13">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -404,10 +386,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="11" r="A1">
+      <c t="s" s="10" r="A1">
         <v>0</v>
       </c>
-      <c t="s" s="12" r="B1">
+      <c t="s" s="11" r="B1">
         <v>1</v>
       </c>
       <c t="s" s="6" r="C1">
@@ -428,79 +410,87 @@
       <c s="5" r="F2"/>
     </row>
     <row r="3">
-      <c t="s" s="9" r="A3">
+      <c t="s" s="8" r="A3">
         <v>4</v>
       </c>
-      <c s="7" r="B3"/>
-      <c t="s" s="15" r="C3">
+      <c t="s" s="7" r="B3">
         <v>5</v>
+      </c>
+      <c t="s" s="13" r="C3">
+        <v>6</v>
       </c>
       <c s="5" r="D3"/>
       <c s="5" r="E3"/>
       <c s="5" r="F3"/>
     </row>
     <row r="4">
-      <c t="s" s="10" r="A4">
-        <v>6</v>
-      </c>
-      <c s="5" r="B4"/>
-      <c t="s" s="15" r="C4">
+      <c t="s" s="9" r="A4">
         <v>7</v>
+      </c>
+      <c t="s" s="5" r="B4">
+        <v>5</v>
+      </c>
+      <c t="s" s="13" r="C4">
+        <v>8</v>
       </c>
       <c s="5" r="D4"/>
       <c s="5" r="E4"/>
       <c s="5" r="F4"/>
     </row>
     <row r="5">
-      <c t="s" s="10" r="A5">
-        <v>8</v>
-      </c>
-      <c s="5" r="B5"/>
-      <c t="s" s="15" r="C5">
+      <c t="s" s="9" r="A5">
         <v>9</v>
+      </c>
+      <c t="s" s="5" r="B5">
+        <v>5</v>
+      </c>
+      <c t="s" s="13" r="C5">
+        <v>10</v>
       </c>
       <c s="5" r="D5"/>
       <c s="5" r="E5"/>
       <c s="5" r="F5"/>
     </row>
     <row r="6">
-      <c t="s" s="10" r="A6">
-        <v>10</v>
-      </c>
-      <c s="5" r="B6"/>
-      <c t="s" s="15" r="C6">
+      <c t="s" s="9" r="A6">
         <v>11</v>
+      </c>
+      <c t="s" s="5" r="B6">
+        <v>5</v>
+      </c>
+      <c t="s" s="13" r="C6">
+        <v>12</v>
       </c>
       <c s="5" r="D6"/>
       <c s="5" r="E6"/>
       <c s="5" r="F6"/>
     </row>
     <row r="7">
-      <c s="10" r="A7"/>
+      <c s="9" r="A7"/>
       <c s="5" r="B7"/>
-      <c t="s" s="15" r="C7">
-        <v>12</v>
+      <c t="s" s="13" r="C7">
+        <v>13</v>
       </c>
       <c s="5" r="D7"/>
       <c s="5" r="E7"/>
       <c s="5" r="F7"/>
     </row>
     <row r="8">
-      <c t="s" s="10" r="A8">
-        <v>13</v>
+      <c t="s" s="9" r="A8">
+        <v>14</v>
       </c>
       <c t="s" s="5" r="B8">
-        <v>14</v>
-      </c>
-      <c t="s" s="15" r="C8">
         <v>15</v>
+      </c>
+      <c t="s" s="13" r="C8">
+        <v>16</v>
       </c>
       <c s="5" r="D8"/>
       <c s="5" r="E8"/>
       <c s="5" r="F8"/>
     </row>
     <row r="9">
-      <c s="10" r="A9"/>
+      <c s="9" r="A9"/>
       <c s="5" r="B9"/>
       <c s="5" r="C9"/>
       <c s="5" r="D9"/>
@@ -508,7 +498,7 @@
       <c s="5" r="F9"/>
     </row>
     <row r="10">
-      <c s="10" r="A10"/>
+      <c s="9" r="A10"/>
       <c s="5" r="B10"/>
       <c s="5" r="C10"/>
       <c s="5" r="D10"/>
@@ -516,7 +506,7 @@
       <c s="5" r="F10"/>
     </row>
     <row r="11">
-      <c s="10" r="A11"/>
+      <c s="9" r="A11"/>
       <c s="5" r="B11"/>
       <c s="5" r="C11"/>
       <c s="5" r="D11"/>
@@ -524,7 +514,7 @@
       <c s="5" r="F11"/>
     </row>
     <row r="12">
-      <c s="10" r="A12"/>
+      <c s="9" r="A12"/>
       <c s="5" r="B12"/>
       <c s="5" r="C12"/>
       <c s="5" r="D12"/>
@@ -532,7 +522,7 @@
       <c s="5" r="F12"/>
     </row>
     <row r="13">
-      <c s="10" r="A13"/>
+      <c s="9" r="A13"/>
       <c s="5" r="B13"/>
       <c s="5" r="C13"/>
       <c s="5" r="D13"/>
@@ -540,7 +530,7 @@
       <c s="5" r="F13"/>
     </row>
     <row r="14">
-      <c s="10" r="A14"/>
+      <c s="9" r="A14"/>
       <c s="5" r="B14"/>
       <c s="5" r="C14"/>
       <c s="5" r="D14"/>
@@ -548,7 +538,7 @@
       <c s="5" r="F14"/>
     </row>
     <row r="15">
-      <c s="10" r="A15"/>
+      <c s="9" r="A15"/>
       <c s="5" r="B15"/>
       <c s="5" r="C15"/>
       <c s="5" r="D15"/>
@@ -556,7 +546,7 @@
       <c s="5" r="F15"/>
     </row>
     <row r="16">
-      <c s="10" r="A16"/>
+      <c s="9" r="A16"/>
       <c s="5" r="B16"/>
       <c s="5" r="C16"/>
       <c s="5" r="D16"/>
@@ -564,7 +554,7 @@
       <c s="5" r="F16"/>
     </row>
     <row r="17">
-      <c s="10" r="A17"/>
+      <c s="9" r="A17"/>
       <c s="5" r="B17"/>
       <c s="5" r="C17"/>
       <c s="5" r="D17"/>
@@ -572,7 +562,7 @@
       <c s="5" r="F17"/>
     </row>
     <row r="18">
-      <c s="10" r="A18"/>
+      <c s="9" r="A18"/>
       <c s="5" r="B18"/>
       <c s="5" r="C18"/>
       <c s="5" r="D18"/>
@@ -580,7 +570,7 @@
       <c s="5" r="F18"/>
     </row>
     <row r="19">
-      <c s="10" r="A19"/>
+      <c s="9" r="A19"/>
       <c s="5" r="B19"/>
       <c s="5" r="C19"/>
       <c s="5" r="D19"/>
@@ -588,7 +578,7 @@
       <c s="5" r="F19"/>
     </row>
     <row r="20">
-      <c s="10" r="A20"/>
+      <c s="9" r="A20"/>
       <c s="5" r="B20"/>
       <c s="5" r="C20"/>
       <c s="5" r="D20"/>
@@ -607,37 +597,40 @@
   <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1">
-      <c t="s" s="12" r="A1">
-        <v>16</v>
-      </c>
-      <c t="s" s="12" r="B1">
+      <c t="s" s="11" r="A1">
         <v>17</v>
+      </c>
+      <c t="s" s="11" r="B1">
+        <v>18</v>
       </c>
       <c s="5" r="C1"/>
       <c s="5" r="D1"/>
       <c s="5" r="E1"/>
+      <c s="5" r="F1"/>
     </row>
     <row r="2">
       <c t="s" s="5" r="A2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" s="3" r="B2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="5" r="C2"/>
       <c s="5" r="D2"/>
       <c s="5" r="E2"/>
+      <c s="5" r="F2"/>
     </row>
     <row r="3">
       <c t="s" s="5" r="A3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" s="3" r="B3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="5" r="C3"/>
       <c s="5" r="D3"/>
       <c s="5" r="E3"/>
+      <c s="5" r="F3"/>
     </row>
     <row r="4">
       <c s="5" r="A4"/>
@@ -645,6 +638,7 @@
       <c s="5" r="C4"/>
       <c s="5" r="D4"/>
       <c s="5" r="E4"/>
+      <c s="5" r="F4"/>
     </row>
     <row r="5">
       <c s="5" r="A5"/>
@@ -652,6 +646,7 @@
       <c s="5" r="C5"/>
       <c s="5" r="D5"/>
       <c s="5" r="E5"/>
+      <c s="5" r="F5"/>
     </row>
     <row r="6">
       <c s="5" r="A6"/>
@@ -659,6 +654,7 @@
       <c s="5" r="C6"/>
       <c s="5" r="D6"/>
       <c s="5" r="E6"/>
+      <c s="5" r="F6"/>
     </row>
     <row r="7">
       <c s="5" r="A7"/>
@@ -666,6 +662,7 @@
       <c s="5" r="C7"/>
       <c s="5" r="D7"/>
       <c s="5" r="E7"/>
+      <c s="5" r="F7"/>
     </row>
     <row r="8">
       <c s="5" r="A8"/>
@@ -673,6 +670,7 @@
       <c s="5" r="C8"/>
       <c s="5" r="D8"/>
       <c s="5" r="E8"/>
+      <c s="5" r="F8"/>
     </row>
     <row r="9">
       <c s="5" r="A9"/>
@@ -680,6 +678,7 @@
       <c s="5" r="C9"/>
       <c s="5" r="D9"/>
       <c s="5" r="E9"/>
+      <c s="5" r="F9"/>
     </row>
     <row r="10">
       <c s="5" r="A10"/>
@@ -687,6 +686,7 @@
       <c s="5" r="C10"/>
       <c s="5" r="D10"/>
       <c s="5" r="E10"/>
+      <c s="5" r="F10"/>
     </row>
     <row r="11">
       <c s="5" r="A11"/>
@@ -694,6 +694,7 @@
       <c s="5" r="C11"/>
       <c s="5" r="D11"/>
       <c s="5" r="E11"/>
+      <c s="5" r="F11"/>
     </row>
     <row r="12">
       <c s="5" r="A12"/>
@@ -701,6 +702,7 @@
       <c s="5" r="C12"/>
       <c s="5" r="D12"/>
       <c s="5" r="E12"/>
+      <c s="5" r="F12"/>
     </row>
     <row r="13">
       <c s="5" r="A13"/>
@@ -708,6 +710,7 @@
       <c s="5" r="C13"/>
       <c s="5" r="D13"/>
       <c s="5" r="E13"/>
+      <c s="5" r="F13"/>
     </row>
     <row r="14">
       <c s="5" r="A14"/>
@@ -715,6 +718,7 @@
       <c s="5" r="C14"/>
       <c s="5" r="D14"/>
       <c s="5" r="E14"/>
+      <c s="5" r="F14"/>
     </row>
     <row r="15">
       <c s="5" r="A15"/>
@@ -722,6 +726,7 @@
       <c s="5" r="C15"/>
       <c s="5" r="D15"/>
       <c s="5" r="E15"/>
+      <c s="5" r="F15"/>
     </row>
     <row r="16">
       <c s="5" r="A16"/>
@@ -729,6 +734,7 @@
       <c s="5" r="C16"/>
       <c s="5" r="D16"/>
       <c s="5" r="E16"/>
+      <c s="5" r="F16"/>
     </row>
     <row r="17">
       <c s="5" r="A17"/>
@@ -736,6 +742,7 @@
       <c s="5" r="C17"/>
       <c s="5" r="D17"/>
       <c s="5" r="E17"/>
+      <c s="5" r="F17"/>
     </row>
     <row r="18">
       <c s="5" r="A18"/>
@@ -743,6 +750,7 @@
       <c s="5" r="C18"/>
       <c s="5" r="D18"/>
       <c s="5" r="E18"/>
+      <c s="5" r="F18"/>
     </row>
     <row r="19">
       <c s="5" r="A19"/>
@@ -750,6 +758,7 @@
       <c s="5" r="C19"/>
       <c s="5" r="D19"/>
       <c s="5" r="E19"/>
+      <c s="5" r="F19"/>
     </row>
     <row r="20">
       <c s="5" r="A20"/>
@@ -757,6 +766,7 @@
       <c s="5" r="C20"/>
       <c s="5" r="D20"/>
       <c s="5" r="E20"/>
+      <c s="5" r="F20"/>
     </row>
   </sheetData>
 </worksheet>
@@ -770,48 +780,49 @@
   <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1">
-      <c t="s" s="13" r="A1">
+      <c t="s" s="6" r="A1">
         <v>0</v>
       </c>
       <c t="s" s="6" r="B1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s" s="6" r="C1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="5" r="D1"/>
       <c s="5" r="E1"/>
       <c s="5" r="F1"/>
     </row>
     <row r="2">
-      <c t="s" s="8" r="A2">
-        <v>22</v>
+      <c t="s" s="7" r="A2">
+        <v>23</v>
       </c>
       <c t="s" s="7" r="B2">
-        <v>18</v>
-      </c>
-      <c t="s" s="14" r="C2">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c t="s" s="12" r="C2">
+        <v>25</v>
       </c>
       <c s="5" r="D2"/>
       <c s="5" r="E2"/>
       <c s="5" r="F2"/>
     </row>
     <row r="3">
-      <c t="s" r="A3">
-        <v>23</v>
+      <c t="s" s="5" r="A3">
+        <v>26</v>
       </c>
       <c t="s" s="5" r="B3">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c t="s" s="3" r="C3">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c s="5" r="D3"/>
       <c s="5" r="E3"/>
       <c s="5" r="F3"/>
     </row>
     <row r="4">
+      <c s="5" r="A4"/>
       <c s="5" r="B4"/>
       <c s="5" r="C4"/>
       <c s="5" r="D4"/>
@@ -819,6 +830,7 @@
       <c s="5" r="F4"/>
     </row>
     <row r="5">
+      <c s="5" r="A5"/>
       <c s="5" r="B5"/>
       <c s="5" r="C5"/>
       <c s="5" r="D5"/>
@@ -826,6 +838,7 @@
       <c s="5" r="F5"/>
     </row>
     <row r="6">
+      <c s="5" r="A6"/>
       <c s="5" r="B6"/>
       <c s="5" r="C6"/>
       <c s="5" r="D6"/>
@@ -833,6 +846,7 @@
       <c s="5" r="F6"/>
     </row>
     <row r="7">
+      <c s="5" r="A7"/>
       <c s="5" r="B7"/>
       <c s="5" r="C7"/>
       <c s="5" r="D7"/>
@@ -840,6 +854,7 @@
       <c s="5" r="F7"/>
     </row>
     <row r="8">
+      <c s="5" r="A8"/>
       <c s="5" r="B8"/>
       <c s="5" r="C8"/>
       <c s="5" r="D8"/>
@@ -847,6 +862,7 @@
       <c s="5" r="F8"/>
     </row>
     <row r="9">
+      <c s="5" r="A9"/>
       <c s="5" r="B9"/>
       <c s="5" r="C9"/>
       <c s="5" r="D9"/>
@@ -854,6 +870,7 @@
       <c s="5" r="F9"/>
     </row>
     <row r="10">
+      <c s="5" r="A10"/>
       <c s="5" r="B10"/>
       <c s="5" r="C10"/>
       <c s="5" r="D10"/>
@@ -861,6 +878,7 @@
       <c s="5" r="F10"/>
     </row>
     <row r="11">
+      <c s="5" r="A11"/>
       <c s="5" r="B11"/>
       <c s="5" r="C11"/>
       <c s="5" r="D11"/>
@@ -868,6 +886,7 @@
       <c s="5" r="F11"/>
     </row>
     <row r="12">
+      <c s="5" r="A12"/>
       <c s="5" r="B12"/>
       <c s="5" r="C12"/>
       <c s="5" r="D12"/>
@@ -875,6 +894,7 @@
       <c s="5" r="F12"/>
     </row>
     <row r="13">
+      <c s="5" r="A13"/>
       <c s="5" r="B13"/>
       <c s="5" r="C13"/>
       <c s="5" r="D13"/>
@@ -882,6 +902,7 @@
       <c s="5" r="F13"/>
     </row>
     <row r="14">
+      <c s="5" r="A14"/>
       <c s="5" r="B14"/>
       <c s="5" r="C14"/>
       <c s="5" r="D14"/>
@@ -889,6 +910,7 @@
       <c s="5" r="F14"/>
     </row>
     <row r="15">
+      <c s="5" r="A15"/>
       <c s="5" r="B15"/>
       <c s="5" r="C15"/>
       <c s="5" r="D15"/>
@@ -896,6 +918,7 @@
       <c s="5" r="F15"/>
     </row>
     <row r="16">
+      <c s="5" r="A16"/>
       <c s="5" r="B16"/>
       <c s="5" r="C16"/>
       <c s="5" r="D16"/>
@@ -903,6 +926,7 @@
       <c s="5" r="F16"/>
     </row>
     <row r="17">
+      <c s="5" r="A17"/>
       <c s="5" r="B17"/>
       <c s="5" r="C17"/>
       <c s="5" r="D17"/>
@@ -910,6 +934,7 @@
       <c s="5" r="F17"/>
     </row>
     <row r="18">
+      <c s="5" r="A18"/>
       <c s="5" r="B18"/>
       <c s="5" r="C18"/>
       <c s="5" r="D18"/>
@@ -917,6 +942,7 @@
       <c s="5" r="F18"/>
     </row>
     <row r="19">
+      <c s="5" r="A19"/>
       <c s="5" r="B19"/>
       <c s="5" r="C19"/>
       <c s="5" r="D19"/>
@@ -924,6 +950,7 @@
       <c s="5" r="F19"/>
     </row>
     <row r="20">
+      <c s="5" r="A20"/>
       <c s="5" r="B20"/>
       <c s="5" r="C20"/>
       <c s="5" r="D20"/>

--- a/_base/_spreadsheet.xlsx
+++ b/_base/_spreadsheet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>key</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>google_analytics_id</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>Identifier for Google analytics</t>
@@ -413,11 +410,9 @@
       <c t="s" s="8" r="A3">
         <v>4</v>
       </c>
-      <c t="s" s="7" r="B3">
+      <c s="7" r="B3"/>
+      <c t="s" s="13" r="C3">
         <v>5</v>
-      </c>
-      <c t="s" s="13" r="C3">
-        <v>6</v>
       </c>
       <c s="5" r="D3"/>
       <c s="5" r="E3"/>
@@ -425,13 +420,11 @@
     </row>
     <row r="4">
       <c t="s" s="9" r="A4">
+        <v>6</v>
+      </c>
+      <c s="5" r="B4"/>
+      <c t="s" s="13" r="C4">
         <v>7</v>
-      </c>
-      <c t="s" s="5" r="B4">
-        <v>5</v>
-      </c>
-      <c t="s" s="13" r="C4">
-        <v>8</v>
       </c>
       <c s="5" r="D4"/>
       <c s="5" r="E4"/>
@@ -439,13 +432,11 @@
     </row>
     <row r="5">
       <c t="s" s="9" r="A5">
+        <v>8</v>
+      </c>
+      <c s="5" r="B5"/>
+      <c t="s" s="13" r="C5">
         <v>9</v>
-      </c>
-      <c t="s" s="5" r="B5">
-        <v>5</v>
-      </c>
-      <c t="s" s="13" r="C5">
-        <v>10</v>
       </c>
       <c s="5" r="D5"/>
       <c s="5" r="E5"/>
@@ -453,13 +444,11 @@
     </row>
     <row r="6">
       <c t="s" s="9" r="A6">
+        <v>10</v>
+      </c>
+      <c s="5" r="B6"/>
+      <c t="s" s="13" r="C6">
         <v>11</v>
-      </c>
-      <c t="s" s="5" r="B6">
-        <v>5</v>
-      </c>
-      <c t="s" s="13" r="C6">
-        <v>12</v>
       </c>
       <c s="5" r="D6"/>
       <c s="5" r="E6"/>
@@ -469,7 +458,7 @@
       <c s="9" r="A7"/>
       <c s="5" r="B7"/>
       <c t="s" s="13" r="C7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c s="5" r="D7"/>
       <c s="5" r="E7"/>
@@ -477,13 +466,13 @@
     </row>
     <row r="8">
       <c t="s" s="9" r="A8">
+        <v>13</v>
+      </c>
+      <c t="s" s="5" r="B8">
         <v>14</v>
       </c>
-      <c t="s" s="5" r="B8">
+      <c t="s" s="13" r="C8">
         <v>15</v>
-      </c>
-      <c t="s" s="13" r="C8">
-        <v>16</v>
       </c>
       <c s="5" r="D8"/>
       <c s="5" r="E8"/>
@@ -598,10 +587,10 @@
   <sheetData>
     <row r="1">
       <c t="s" s="11" r="A1">
+        <v>16</v>
+      </c>
+      <c t="s" s="11" r="B1">
         <v>17</v>
-      </c>
-      <c t="s" s="11" r="B1">
-        <v>18</v>
       </c>
       <c s="5" r="C1"/>
       <c s="5" r="D1"/>
@@ -610,10 +599,10 @@
     </row>
     <row r="2">
       <c t="s" s="5" r="A2">
+        <v>18</v>
+      </c>
+      <c t="s" s="3" r="B2">
         <v>19</v>
-      </c>
-      <c t="s" s="3" r="B2">
-        <v>20</v>
       </c>
       <c s="5" r="C2"/>
       <c s="5" r="D2"/>
@@ -622,10 +611,10 @@
     </row>
     <row r="3">
       <c t="s" s="5" r="A3">
+        <v>20</v>
+      </c>
+      <c t="s" s="3" r="B3">
         <v>21</v>
-      </c>
-      <c t="s" s="3" r="B3">
-        <v>22</v>
       </c>
       <c s="5" r="C3"/>
       <c s="5" r="D3"/>
@@ -784,10 +773,10 @@
         <v>0</v>
       </c>
       <c t="s" s="6" r="B1">
+        <v>16</v>
+      </c>
+      <c t="s" s="6" r="C1">
         <v>17</v>
-      </c>
-      <c t="s" s="6" r="C1">
-        <v>18</v>
       </c>
       <c s="5" r="D1"/>
       <c s="5" r="E1"/>
@@ -795,13 +784,13 @@
     </row>
     <row r="2">
       <c t="s" s="7" r="A2">
+        <v>22</v>
+      </c>
+      <c t="s" s="7" r="B2">
         <v>23</v>
       </c>
-      <c t="s" s="7" r="B2">
+      <c t="s" s="12" r="C2">
         <v>24</v>
-      </c>
-      <c t="s" s="12" r="C2">
-        <v>25</v>
       </c>
       <c s="5" r="D2"/>
       <c s="5" r="E2"/>
@@ -809,13 +798,13 @@
     </row>
     <row r="3">
       <c t="s" s="5" r="A3">
+        <v>25</v>
+      </c>
+      <c t="s" s="5" r="B3">
         <v>26</v>
       </c>
-      <c t="s" s="5" r="B3">
+      <c t="s" s="3" r="C3">
         <v>27</v>
-      </c>
-      <c t="s" s="3" r="C3">
-        <v>28</v>
       </c>
       <c s="5" r="D3"/>
       <c s="5" r="E3"/>
